--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>106919.2456029374</v>
+        <v>19270296.52630691</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106919.2456029374</v>
+        <v>19270296.52630691</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>261219.9936107019</v>
+        <v>31698292.16210519</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261219.9936107019</v>
+        <v>31698292.16210519</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1603758952.856137</v>
+        <v>23483003.38124241</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>18690.91653584779</v>
+        <v>664948.2131784706</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36083.51922550694</v>
+        <v>1182130.156761724</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>53525.80931805123</v>
+        <v>1699312.100344979</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>71550.79110568088</v>
+        <v>2059302.629963434</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>89827.28399963741</v>
+        <v>2454224.5849074</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>108104.9519738976</v>
+        <v>2849146.539851367</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>126381.4448678541</v>
+        <v>3244068.494795333</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>144657.9377618107</v>
+        <v>3638990.449739299</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>162933.2555754636</v>
+        <v>4033912.404683267</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>180383.0136026853</v>
+        <v>4586025.773592034</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>197581.2605235801</v>
+        <v>5103207.717175291</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>214779.5074444749</v>
+        <v>5620389.660758547</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>231977.7543653698</v>
+        <v>6137571.604341803</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>250002.7361529996</v>
+        <v>6497562.13396026</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>269731.4807524713</v>
+        <v>6561099.502143842</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>70</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>70</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27141,28 +27141,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27177,7 +27177,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
